--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_13.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_13.xlsx
@@ -508,99 +508,99 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_9</t>
+          <t>model_1_13_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.979288958490242</v>
+        <v>0.9180229262186017</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7261587863906116</v>
+        <v>0.7472237660272376</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7199763601692704</v>
+        <v>0.6526745036132706</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8723896525099856</v>
+        <v>0.7186893527406919</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08691981065796388</v>
+        <v>0.3440402419171404</v>
       </c>
       <c r="G2" t="n">
-        <v>1.831177456328827</v>
+        <v>1.690315840503396</v>
       </c>
       <c r="H2" t="n">
-        <v>1.00162832297098</v>
+        <v>1.242363161485931</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1761247578577156</v>
+        <v>0.317147033029287</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3059649012031451</v>
+        <v>1.936828599761266</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2948216590719954</v>
+        <v>0.5865494368909925</v>
       </c>
       <c r="L2" t="n">
-        <v>1.012123536493517</v>
+        <v>0.7189357470352058</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3073728274636588</v>
+        <v>0.6115200607441622</v>
       </c>
       <c r="N2" t="n">
-        <v>134.8855386038892</v>
+        <v>36.13399329226674</v>
       </c>
       <c r="O2" t="n">
-        <v>214.1124672203223</v>
+        <v>56.85488231502615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_8</t>
+          <t>model_1_13_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9794783951981022</v>
+        <v>0.9182537769754255</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7257123346409162</v>
+        <v>0.7472189287434897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7202363777545098</v>
+        <v>0.653785446050056</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8790759878633314</v>
+        <v>0.7161029497990788</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0861247853198555</v>
+        <v>0.3430714106749296</v>
       </c>
       <c r="G3" t="n">
-        <v>1.834162881234761</v>
+        <v>1.690348187442092</v>
       </c>
       <c r="H3" t="n">
-        <v>1.000698255145265</v>
+        <v>1.238389384805693</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1668964372847647</v>
+        <v>0.3200629198865473</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3010048232966057</v>
+        <v>1.932385011767736</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2934702460554656</v>
+        <v>0.5857229811736343</v>
       </c>
       <c r="L3" t="n">
-        <v>1.012012646713306</v>
+        <v>0.7197272353443162</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3059638819972048</v>
+        <v>0.6106584210959169</v>
       </c>
       <c r="N3" t="n">
-        <v>134.9039160846182</v>
+        <v>36.13963331819618</v>
       </c>
       <c r="O3" t="n">
-        <v>214.1308447010513</v>
+        <v>56.86052234095559</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9796490440781763</v>
+        <v>0.9177829822540801</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7252540434561934</v>
+        <v>0.7472158213951932</v>
       </c>
       <c r="D4" t="n">
-        <v>0.720475480228431</v>
+        <v>0.6515512559002706</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8855530560295786</v>
+        <v>0.7212663361162577</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0854086084758252</v>
+        <v>0.3450472354068168</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83722747649724</v>
+        <v>1.690368966294459</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9998429994600061</v>
+        <v>1.246380953425687</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1579569422920293</v>
+        <v>0.3142417657040403</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2960272605328983</v>
+        <v>1.94134665992281</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2922475123518166</v>
+        <v>0.5874072142958552</v>
       </c>
       <c r="L4" t="n">
-        <v>1.011912754685946</v>
+        <v>0.7181130820139887</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3046890939883838</v>
+        <v>0.6124143555089939</v>
       </c>
       <c r="N4" t="n">
-        <v>134.9206167628863</v>
+        <v>36.12814791420004</v>
       </c>
       <c r="O4" t="n">
-        <v>214.1475453793193</v>
+        <v>56.84903693695944</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9798001842352171</v>
+        <v>0.9175338751498935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7247838453576864</v>
+        <v>0.7471955342225993</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7206929494555412</v>
+        <v>0.6504158258425244</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8918123968692817</v>
+        <v>0.7238342230335983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08477430556901053</v>
+        <v>0.3460926846334644</v>
       </c>
       <c r="G5" t="n">
-        <v>1.840371693347019</v>
+        <v>1.690504626711008</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9990651246442235</v>
+        <v>1.250442320906228</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1493179493621818</v>
+        <v>0.311346753642024</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2910302965274075</v>
+        <v>1.945948734666327</v>
       </c>
       <c r="K5" t="n">
-        <v>0.29116027470967</v>
+        <v>0.5882964258207459</v>
       </c>
       <c r="L5" t="n">
-        <v>1.011824282398897</v>
+        <v>0.7172590005139206</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3035555703889189</v>
+        <v>0.6133414226094209</v>
       </c>
       <c r="N5" t="n">
-        <v>134.9355255649272</v>
+        <v>36.12209733026646</v>
       </c>
       <c r="O5" t="n">
-        <v>214.1624541813603</v>
+        <v>56.84298635302587</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9799314030979552</v>
+        <v>0.9172752874754728</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7243012796427946</v>
+        <v>0.7471629245202768</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7208883884880291</v>
+        <v>0.649268152713421</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8978490369557066</v>
+        <v>0.7263912272091589</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08422360807277038</v>
+        <v>0.3471779217852777</v>
       </c>
       <c r="G6" t="n">
-        <v>1.843598612504512</v>
+        <v>1.690722687940593</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9983660505572205</v>
+        <v>1.254547481143119</v>
       </c>
       <c r="I6" t="n">
-        <v>0.140986322700175</v>
+        <v>0.3084640106828674</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2860135386704817</v>
+        <v>1.950635795969929</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2902130391156992</v>
+        <v>0.5892180596224776</v>
       </c>
       <c r="L6" t="n">
-        <v>1.011747471357294</v>
+        <v>0.7163724142016211</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3025680090146647</v>
+        <v>0.6143022922701374</v>
       </c>
       <c r="N6" t="n">
-        <v>134.9485600322429</v>
+        <v>36.1158357750919</v>
       </c>
       <c r="O6" t="n">
-        <v>214.175488648676</v>
+        <v>56.8367247978513</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9800420658792928</v>
+        <v>0.91700703050999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7238063923865105</v>
+        <v>0.7471181809171048</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7210610970803044</v>
+        <v>0.6481084349389497</v>
       </c>
       <c r="E7" t="n">
-        <v>0.903655261447851</v>
+        <v>0.728936305808092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08375918005275898</v>
+        <v>0.3483037388831988</v>
       </c>
       <c r="G7" t="n">
-        <v>1.846907925866029</v>
+        <v>1.691021888621029</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9977482819368712</v>
+        <v>1.258695724378103</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1329727101455466</v>
+        <v>0.3055947125089738</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2809746269978328</v>
+        <v>1.955412720109761</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2894117828505933</v>
+        <v>0.5901726348139151</v>
       </c>
       <c r="L7" t="n">
-        <v>1.011682693143829</v>
+        <v>0.7154526760342514</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3017326416115241</v>
+        <v>0.6152975057037174</v>
       </c>
       <c r="N7" t="n">
-        <v>134.9596190034274</v>
+        <v>36.10936073400916</v>
       </c>
       <c r="O7" t="n">
-        <v>214.1865476198605</v>
+        <v>56.83024975676857</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9801315550508564</v>
+        <v>0.9167287115678634</v>
       </c>
       <c r="C8" t="n">
-        <v>0.723298887615782</v>
+        <v>0.7470614859812523</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7212102152314203</v>
+        <v>0.646936836819195</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9092237650240478</v>
+        <v>0.7314674861119455</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08338361314345714</v>
+        <v>0.3494717839446109</v>
       </c>
       <c r="G8" t="n">
-        <v>1.850301612604735</v>
+        <v>1.691401007918131</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9972148949566968</v>
+        <v>1.262886462919304</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1252871943290159</v>
+        <v>0.3027410831449585</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2759163103219974</v>
+        <v>1.960285262399876</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2887622086483221</v>
+        <v>0.5911613857015789</v>
       </c>
       <c r="L8" t="n">
-        <v>1.011630309238523</v>
+        <v>0.7144984396612459</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3010554136906583</v>
+        <v>0.6163283497636655</v>
       </c>
       <c r="N8" t="n">
-        <v>134.9686069480272</v>
+        <v>36.10266490640154</v>
       </c>
       <c r="O8" t="n">
-        <v>214.1955355644602</v>
+        <v>56.82355392916095</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9801993925650903</v>
+        <v>0.9164400719837129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7227786408472472</v>
+        <v>0.7469929385928948</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7213350506050985</v>
+        <v>0.6457529030713571</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9145478328070971</v>
+        <v>0.7339848966904357</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08309891360819066</v>
+        <v>0.350683142532779</v>
       </c>
       <c r="G9" t="n">
-        <v>1.853780505141443</v>
+        <v>1.691859384619709</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9967683660634206</v>
+        <v>1.267121325286897</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1179390429639317</v>
+        <v>0.2999029776425076</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2835341396882425</v>
+        <v>1.965261467991147</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2882688217761169</v>
+        <v>0.5921850576743549</v>
       </c>
       <c r="L9" t="n">
-        <v>1.011590599474093</v>
+        <v>0.7135088182298728</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3005410223178517</v>
+        <v>0.6173956015716157</v>
       </c>
       <c r="N9" t="n">
-        <v>134.9754473010263</v>
+        <v>36.09574438209452</v>
       </c>
       <c r="O9" t="n">
-        <v>214.2023759174594</v>
+        <v>56.81663340485392</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9802450092364507</v>
+        <v>0.9161408810150171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7222454668889067</v>
+        <v>0.7469125704429023</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7214350590995047</v>
+        <v>0.6445570935793126</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9196213269395279</v>
+        <v>0.7364859226630639</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08290747019692425</v>
+        <v>0.3519387830247052</v>
       </c>
       <c r="G10" t="n">
-        <v>1.857345841855907</v>
+        <v>1.69239680680877</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9964106414777554</v>
+        <v>1.271398666502922</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1109367273747758</v>
+        <v>0.2970833439938135</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2926185524988522</v>
+        <v>1.970347389299762</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2879365732186939</v>
+        <v>0.5932442861289986</v>
       </c>
       <c r="L10" t="n">
-        <v>1.011563897032322</v>
+        <v>0.7124830206229158</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3001946292514898</v>
+        <v>0.6184999235744788</v>
       </c>
       <c r="N10" t="n">
-        <v>134.9800602199213</v>
+        <v>36.08859606074019</v>
       </c>
       <c r="O10" t="n">
-        <v>214.2069888363544</v>
+        <v>56.8094850834996</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9802678001093276</v>
+        <v>0.9158308329482703</v>
       </c>
       <c r="C11" t="n">
-        <v>0.721699232557937</v>
+        <v>0.7468203871315535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7215096140191728</v>
+        <v>0.6433496935365179</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9244358603446735</v>
+        <v>0.7389697213427133</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08281182177894193</v>
+        <v>0.353239988434573</v>
       </c>
       <c r="G11" t="n">
-        <v>1.860998513342279</v>
+        <v>1.693013237036224</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9961439628530453</v>
+        <v>1.275717466446921</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1042918232047163</v>
+        <v>0.2942831322365715</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3017513252734171</v>
+        <v>1.975547428618213</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2877704324265124</v>
+        <v>0.5943399603211726</v>
       </c>
       <c r="L11" t="n">
-        <v>1.011550556033564</v>
+        <v>0.7114199986797838</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3000214155018263</v>
+        <v>0.6196422428853718</v>
       </c>
       <c r="N11" t="n">
-        <v>134.9823689053486</v>
+        <v>36.08121519824505</v>
       </c>
       <c r="O11" t="n">
-        <v>214.2092975217817</v>
+        <v>56.80210422100446</v>
       </c>
     </row>
   </sheetData>
